--- a/testCase/163mailTest/module.xlsx
+++ b/testCase/163mailTest/module.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>YES</t>
   </si>
@@ -69,80 +69,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>com.netease.mail:id/editor_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${username}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入登陆账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendkeys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入登陆密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${password}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登陆按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendkeys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入登陆账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.netease.mail:id/editor_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入登陆密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginButton.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>com.netease.mail:id/editor_password</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击登陆按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.netease.mail:id/button_login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${username}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${password}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待10秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -583,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -646,25 +634,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1">
         <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -676,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1">
         <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -703,57 +691,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/testCase/163mailTest/module.xlsx
+++ b/testCase/163mailTest/module.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>YES</t>
   </si>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.netease.mail:id/editor_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ById</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +126,14 @@
   </si>
   <si>
     <t>com.netease.mail:id/editor_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByAndroidUIAutomator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new UiSelector().text("邮箱帐号")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +578,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -584,7 +588,7 @@
     <col min="3" max="3" width="16.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="29.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.25" style="4" customWidth="1"/>
     <col min="9" max="9" width="21.25" style="4" customWidth="1"/>
@@ -634,25 +638,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1">
         <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -664,25 +668,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1">
         <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -691,24 +695,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1"/>
     </row>

--- a/testCase/163mailTest/module.xlsx
+++ b/testCase/163mailTest/module.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>YES</t>
   </si>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Property Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${username}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sendkeys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入登陆密码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -101,14 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LoginButton.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -125,15 +105,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com.netease.mail:id/editor_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ByAndroidUIAutomator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new UiSelector().text("邮箱帐号")</t>
+    <t>id=com.netease.mail:id/editor_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickPicture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=com.netease.mail:id/editor_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementSendKeys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementSendKeys</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,6 +146,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -575,30 +564,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="4"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -618,19 +604,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -638,29 +621,26 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="1">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -668,53 +648,47 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
